--- a/결제내역서.xlsx
+++ b/결제내역서.xlsx
@@ -601,7 +601,7 @@
   <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15">
-        <f t="shared" ref="F5:F11" si="0">F4+D5-E5</f>
+        <f t="shared" ref="F5:F6" si="0">F4+D5-E5</f>
         <v>90000</v>
       </c>
     </row>

--- a/결제내역서.xlsx
+++ b/결제내역서.xlsx
@@ -601,7 +601,7 @@
   <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,8 +704,12 @@
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="14">
+        <v>5856</v>
+      </c>
+      <c r="F7" s="15">
+        <v>50284</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>

--- a/결제내역서.xlsx
+++ b/결제내역서.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\DataVase_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19395" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="19392" windowHeight="10548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>입금</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,13 +60,21 @@
   </si>
   <si>
     <t>서버 관리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간식비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심비(진관 고운정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,6 +319,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,21 +617,21 @@
   <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -632,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="6">
         <v>44018</v>
       </c>
@@ -648,7 +664,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="6">
         <v>44018</v>
       </c>
@@ -664,7 +680,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
         <v>44020</v>
       </c>
@@ -676,11 +692,11 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15">
-        <f t="shared" ref="F5:F6" si="0">F4+D5-E5</f>
+        <f t="shared" ref="F5:F9" si="0">F4+D5-E5</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
         <v>44020</v>
       </c>
@@ -696,7 +712,7 @@
         <v>56140</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
         <v>44044</v>
       </c>
@@ -708,136 +724,155 @@
         <v>5856</v>
       </c>
       <c r="F7" s="15">
+        <f t="shared" si="0"/>
         <v>50284</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
+        <v>44071</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
+      <c r="E8" s="14">
+        <v>3400</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>46884</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="6">
+        <v>44071</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="14">
+        <v>24000</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>22884</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -847,6 +882,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -856,7 +892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -869,7 +905,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
